--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1962170.553332073</v>
+        <v>1959918.473620867</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283179</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>114.4918089738184</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292606</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396202</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>94.81275980261485</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.817218682475</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734099341</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>149.5516258167719</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983813</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004739</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>158.2598945289015</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>82.99473116157712</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>227.7172236952955</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>66.23125412673316</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,10 +1063,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>128.2538703177676</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>183.1642512458452</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>42.67804628306391</v>
       </c>
       <c r="T10" t="n">
-        <v>131.3542190999268</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D13" t="n">
-        <v>98.00068573248024</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>121.8000472740329</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>135.3120514073131</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.40545032729</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.9742741983404</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>18.70843787977172</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505467</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>113.6427030833213</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784708</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>27.02919805176784</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890313</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569541</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,19 +2950,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.8302520576408</v>
       </c>
     </row>
     <row r="32">
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340525</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>46.29306638367346</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740356</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.799772605717069</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>9.146142788179397</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.64725059288511</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1976.204921733553</v>
+        <v>1698.509627919556</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1329.547110979145</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881546</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296683</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052365</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609168</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136263</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520485</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794321</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450751</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180636</v>
       </c>
       <c r="X2" t="n">
-        <v>1976.204921733553</v>
+        <v>1698.509627919556</v>
       </c>
       <c r="Y2" t="n">
-        <v>1976.204921733553</v>
+        <v>1698.509627919556</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811061</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999791</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387279</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332724</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601574</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686075</v>
+        <v>176.0213023927755</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064296</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986304</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158125</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438128</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992582</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410636</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886739</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533339</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125854</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619334</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431605</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199862</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471661</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266128</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501174</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212.7293032143256</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="C4" t="n">
-        <v>212.7293032143256</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="D4" t="n">
-        <v>212.7293032143256</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143256</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.6347488791188</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279951</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764911</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760399</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581904</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088491</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846019</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672845</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.67533979849</v>
+        <v>1134.908724368015</v>
       </c>
       <c r="V4" t="n">
-        <v>1101.990851592603</v>
+        <v>880.2242361621282</v>
       </c>
       <c r="W4" t="n">
-        <v>812.5736815556427</v>
+        <v>880.2242361621282</v>
       </c>
       <c r="X4" t="n">
-        <v>584.5841306576253</v>
+        <v>652.2346852641109</v>
       </c>
       <c r="Y4" t="n">
-        <v>363.7915515140952</v>
+        <v>492.3762059419881</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4568,13 +4568,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3241.772759829801</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410103</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="W5" t="n">
-        <v>2961.784676410103</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X5" t="n">
-        <v>2961.784676410103</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4635,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4650,7 +4650,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>431.4421061205821</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218343</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1767.918581386758</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1478.501411349798</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>431.4421061205821</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4817,37 +4817,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520489</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520489</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2824.323010322666</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4857,34 +4857,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158134</v>
@@ -4896,31 +4896,31 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1884.185410428832</v>
       </c>
       <c r="T10" t="n">
-        <v>1794.613518694628</v>
+        <v>1662.418794998358</v>
       </c>
       <c r="U10" t="n">
-        <v>1794.613518694628</v>
+        <v>1373.315928124002</v>
       </c>
       <c r="V10" t="n">
-        <v>1539.929030488741</v>
+        <v>1118.631439918115</v>
       </c>
       <c r="W10" t="n">
-        <v>1250.51186045178</v>
+        <v>829.2142698811541</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>601.2247189831368</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>380.4321398396066</v>
       </c>
     </row>
     <row r="11">
@@ -5033,19 +5033,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5057,10 +5057,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,22 +5112,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>564.5188827892232</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>465.5282911402533</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5358,25 +5358,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>363.7369613277336</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>363.7369613277336</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>216.8470138298233</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>216.8470138298233</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2243.238540027296</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2023.637075050237</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U16" t="n">
-        <v>1734.561848394435</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V16" t="n">
-        <v>1479.877360188548</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W16" t="n">
-        <v>1190.460190151587</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X16" t="n">
-        <v>1190.460190151587</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y16" t="n">
-        <v>969.6676110080573</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,52 +5501,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400703</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121634</v>
+        <v>344.9174178121666</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998277</v>
+        <v>194.8007783998309</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998277</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998277</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782946</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038332</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797733</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138402</v>
+        <v>916.2946447138434</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.50206557031</v>
+        <v>695.5020655703132</v>
       </c>
     </row>
     <row r="20">
@@ -5738,16 +5738,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111718</v>
@@ -5756,7 +5756,7 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452613</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1025.119922845745</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1652.717886400352</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2204.627616639639</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>198.0274703142549</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5917,7 +5917,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5926,13 +5926,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487568</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="23">
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,19 +6066,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>150.8995423128877</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8243144841084</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>980.1499206998673</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O24" t="n">
         <v>2129.438138565707</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459591</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180522</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919729</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761988</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,61 +6212,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>943.510265746754</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.853600740078</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121712</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121712</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138479</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703178</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,55 +6458,55 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111686</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075781</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718716</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>634.560372056552</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>768.5380889459582</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>599.6019060180513</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>449.4852666057155</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4852666057155</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>449.4852666057155</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>282.2891673205955</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>140.5773361627936</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1170.979132919728</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y34" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6923,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,22 +7014,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913855</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417938</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>216.847013829826</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7148,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723914</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723914</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597619</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597619</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>411.9631215597619</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>244.7670222746419</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7494,19 +7494,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7549,19 +7549,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7728,25 +7728,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>445.6984928076085</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>157.0967141518962</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.469136006766348e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>-1.637511894809537e-12</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D13" t="n">
-        <v>50.61478728573212</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>18.494665572191</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>45.71423459433146</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844822877</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>146.8157004124971</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>143.6212754172142</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489108</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948013</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.754401294454</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.32043864788483</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>34.97276993489207</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>43.72409101823325</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124953</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>18.61858572568042</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>874902.6816227563</v>
+        <v>874902.6816227564</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>860312.7529397651</v>
+        <v>860312.752939765</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>860312.752939765</v>
+        <v>860312.7529397651</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>860312.752939765</v>
+        <v>860312.7529397651</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>860312.752939765</v>
+        <v>860312.7529397652</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>860312.752939765</v>
+        <v>860312.7529397651</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>860312.752939765</v>
+        <v>860312.7529397651</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>860312.752939765</v>
+        <v>860312.7529397651</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="F2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="G2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="H2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="H2" t="n">
-        <v>565002.6197830044</v>
-      </c>
       <c r="I2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="J2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830049</v>
       </c>
       <c r="L2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830047</v>
       </c>
       <c r="M2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="N2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="O2" t="n">
         <v>565002.6197830046</v>
       </c>
-      <c r="N2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830043</v>
-      </c>
       <c r="P2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
     </row>
     <row r="3">
@@ -26366,22 +26366,22 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>9.149718480330194e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551169</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.84288319426</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319397</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319395</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184274</v>
@@ -26436,28 +26436,28 @@
         <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184276</v>
+        <v>13606.80811184265</v>
       </c>
       <c r="J4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="L4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13606.8081118428</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13606.80811184276</v>
       </c>
       <c r="M4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>107933.9405613932</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26491,7 +26491,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-954743.2902671812</v>
+        <v>-954743.2902671805</v>
       </c>
       <c r="C6" t="n">
-        <v>374001.455460411</v>
+        <v>374001.4554604103</v>
       </c>
       <c r="D6" t="n">
-        <v>374001.4554604111</v>
+        <v>374001.4554604113</v>
       </c>
       <c r="E6" t="n">
-        <v>124860.8200398996</v>
+        <v>124826.0821144637</v>
       </c>
       <c r="F6" t="n">
-        <v>450273.2818472545</v>
+        <v>450238.5439218188</v>
       </c>
       <c r="G6" t="n">
-        <v>450273.2818472547</v>
+        <v>450238.5439218188</v>
       </c>
       <c r="H6" t="n">
-        <v>450273.2818472544</v>
+        <v>450238.543921819</v>
       </c>
       <c r="I6" t="n">
-        <v>450273.2818472544</v>
+        <v>450238.5439218191</v>
       </c>
       <c r="J6" t="n">
-        <v>232742.079449977</v>
+        <v>232707.3415245415</v>
       </c>
       <c r="K6" t="n">
-        <v>450273.2818472544</v>
+        <v>450238.5439218193</v>
       </c>
       <c r="L6" t="n">
-        <v>450273.2818472545</v>
+        <v>450238.5439218192</v>
       </c>
       <c r="M6" t="n">
-        <v>365218.2539117431</v>
+        <v>365183.5159863073</v>
       </c>
       <c r="N6" t="n">
-        <v>450273.2818472544</v>
+        <v>450238.543921819</v>
       </c>
       <c r="O6" t="n">
-        <v>450273.2818472544</v>
+        <v>450238.5439218194</v>
       </c>
       <c r="P6" t="n">
-        <v>450273.2818472545</v>
+        <v>450238.543921819</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402292</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,7 +26802,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26960,22 +26960,22 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402292</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402292</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>240.1912326468645</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>274.9183408758542</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30.28035436516544</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,16 +27546,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,7 +27588,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>60.32475882319326</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>26.19303062659871</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>158.5207149607581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>101.0155669718947</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,10 +27783,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>226.4291713029153</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>186.5668494326239</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>147.090979048378</v>
       </c>
       <c r="T10" t="n">
-        <v>88.19473017624244</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>-1.073772610967144e-12</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29496,7 +29496,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>5.844450849205411e-12</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003807</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.356529362319</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574989</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095019</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781687</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806945</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.6385688179853</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752252</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138793</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.647816683792</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970247</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238314</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898492</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,46 +31197,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742015</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.3612387071221</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553034</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.39664015211229</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780294</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
@@ -31847,10 +31847,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N12" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -32078,10 +32078,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>362.180468412921</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32093,13 +32093,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486389</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162543</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32503,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32552,31 +32552,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963282</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>448.9178583921309</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32643,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>184.4971006716322</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>508.3747716989719</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663252</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356895</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111242</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162543</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>530.4152909475297</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817556</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>172.8142548092783</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34214,7 +34214,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>233.3139244897921</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34448,7 +34448,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34469,7 +34469,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687123</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554002</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923317</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302262</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193714</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037192</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222461</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597696</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340051</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004588</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127269</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306614</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443194</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226396</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789354</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35495,10 +35495,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N12" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>224.339029438562</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,13 +35741,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041944</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295222</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998997</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.079992146267</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>261.348781916454</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>314.9434509778006</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193496</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>57.65947400496545</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L24" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>369.8203919190977</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.708711039639</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558152</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>55.96455263124998</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146267</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>399.0735788641963</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.454324036775</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>27.13475084531435</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37862,7 +37862,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>94.75954470991793</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38096,7 +38096,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38117,7 +38117,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
